--- a/versions/v16/docs/mobile-attack-v16.1/mobile-attack-v16.1-software.xlsx
+++ b/versions/v16/docs/mobile-attack-v16.1/mobile-attack-v16.1-software.xlsx
@@ -2137,7 +2137,7 @@
     <t>tool</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-Anserver2),(Citation: TrendMicro-Anserver)</t>
+    <t>,(Citation: TrendMicro-Anserver),(Citation: TrendMicro-Anserver2)</t>
   </si>
   <si>
     <t>,(Citation: lookout_abstractemu_1021)</t>
@@ -2167,7 +2167,7 @@
     <t>,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,(Citation: Cofense Anubis),(Citation: Zimperium z9),(Citation: Trend Micro Anubis)</t>
+    <t>,(Citation: Zimperium z9),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis)</t>
   </si>
   <si>
     <t>,(Citation: Securelist Asacub)</t>
@@ -2176,13 +2176,13 @@
     <t>,(Citation: lookout_bouldspy_0423)</t>
   </si>
   <si>
-    <t>,(Citation: securelist_brata_0819),(Citation: cleafy_brata_0122),(Citation: mcafee_brata_0421)</t>
+    <t>,(Citation: mcafee_brata_0421),(Citation: securelist_brata_0819),(Citation: cleafy_brata_0122)</t>
   </si>
   <si>
     <t>,(Citation: Lookout-BrainTest)</t>
   </si>
   <si>
-    <t>,(Citation: Check Point-Joker),(Citation: Google Bread)</t>
+    <t>,(Citation: Google Bread),(Citation: Check Point-Joker)</t>
   </si>
   <si>
     <t>,(Citation: SecureList BusyGasper)</t>
@@ -2194,7 +2194,7 @@
     <t>,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,(Citation: Threat Fabric Cerberus),(Citation: Forbes Cerberus),(Citation: CheckPoint Cerberus)</t>
+    <t>,(Citation: Forbes Cerberus),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus)</t>
   </si>
   <si>
     <t>,(Citation: cyble_chameleon_0423)</t>
@@ -2254,7 +2254,7 @@
     <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Dark Caracal Jan 2018)</t>
   </si>
   <si>
-    <t>,(Citation: FlexiSpy-Features),(Citation: FortiGuard-FlexiSpy),(Citation: CyberMerchants-FlexiSpy)</t>
+    <t>,(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy)</t>
   </si>
   <si>
     <t>,(Citation: checkpoint_flixonline_0421)</t>
@@ -2317,7 +2317,7 @@
     <t>,(Citation: Tripwire-MazarBOT)</t>
   </si>
   <si>
-    <t>,(Citation: Lookout-Monokle),(Citation: Xiao-KeyRaider)</t>
+    <t>,(Citation: Xiao-KeyRaider),(Citation: Lookout-Monokle)</t>
   </si>
   <si>
     <t>,(Citation: Lookout-NotCompatible)</t>
@@ -2338,7 +2338,7 @@
     <t>,(Citation: CitizenLab Great iPwn),(Citation: Lookout-Pegasus)</t>
   </si>
   <si>
-    <t>(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper)</t>
+    <t>(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper),(Citation: fb_arid_viper)</t>
   </si>
   <si>
     <t>,(Citation: TrendMicro-RCSAndroid)</t>
@@ -2395,7 +2395,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016)</t>
+    <t>,(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: Krebs-Triada June 2019)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>

--- a/versions/v16/docs/mobile-attack-v16.1/mobile-attack-v16.1-software.xlsx
+++ b/versions/v16/docs/mobile-attack-v16.1/mobile-attack-v16.1-software.xlsx
@@ -2137,13 +2137,13 @@
     <t>tool</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-Anserver),(Citation: TrendMicro-Anserver2)</t>
+    <t>,(Citation: TrendMicro-Anserver2),(Citation: TrendMicro-Anserver)</t>
   </si>
   <si>
     <t>,(Citation: lookout_abstractemu_1021)</t>
   </si>
   <si>
-    <t>,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
+    <t>,(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint Agent Smith)</t>
@@ -2155,7 +2155,7 @@
     <t>,(Citation: HackerNews-Allwinner)</t>
   </si>
   <si>
-    <t>,(Citation: Lookout-EnterpriseApps),(Citation: blackberry_mobile_malware_apt_esp),(Citation: forcepoint_bitter)</t>
+    <t>,(Citation: blackberry_mobile_malware_apt_esp),(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps)</t>
   </si>
   <si>
     <t>,(Citation: WeLiveSecurity AdDisplayAshas)</t>
@@ -2167,7 +2167,7 @@
     <t>,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,(Citation: Zimperium z9),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis)</t>
+    <t>,(Citation: Cofense Anubis),(Citation: Trend Micro Anubis),(Citation: Zimperium z9)</t>
   </si>
   <si>
     <t>,(Citation: Securelist Asacub)</t>
@@ -2176,13 +2176,13 @@
     <t>,(Citation: lookout_bouldspy_0423)</t>
   </si>
   <si>
-    <t>,(Citation: mcafee_brata_0421),(Citation: securelist_brata_0819),(Citation: cleafy_brata_0122)</t>
+    <t>,(Citation: mcafee_brata_0421),(Citation: cleafy_brata_0122),(Citation: securelist_brata_0819)</t>
   </si>
   <si>
     <t>,(Citation: Lookout-BrainTest)</t>
   </si>
   <si>
-    <t>,(Citation: Google Bread),(Citation: Check Point-Joker)</t>
+    <t>,(Citation: Check Point-Joker),(Citation: Google Bread)</t>
   </si>
   <si>
     <t>,(Citation: SecureList BusyGasper)</t>
@@ -2194,7 +2194,7 @@
     <t>,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,(Citation: Forbes Cerberus),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus)</t>
+    <t>,(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus),(Citation: Forbes Cerberus)</t>
   </si>
   <si>
     <t>,(Citation: cyble_chameleon_0423)</t>
@@ -2254,7 +2254,7 @@
     <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Dark Caracal Jan 2018)</t>
   </si>
   <si>
-    <t>,(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy)</t>
+    <t>,(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy),(Citation: FortiGuard-FlexiSpy)</t>
   </si>
   <si>
     <t>,(Citation: checkpoint_flixonline_0421)</t>
@@ -2284,7 +2284,7 @@
     <t>,(Citation: Gooligan Citation)</t>
   </si>
   <si>
-    <t>,(Citation: Talos Gustuff Apr 2019),(Citation: Group IB Gustuff Mar 2019)</t>
+    <t>,(Citation: Group IB Gustuff Mar 2019),(Citation: Talos Gustuff Apr 2019)</t>
   </si>
   <si>
     <t>,(Citation: Palo Alto HenBox)</t>
@@ -2302,7 +2302,7 @@
     <t>,(Citation: ArsTechnica-HummingWhale)</t>
   </si>
   <si>
-    <t>,(Citation: Volexity Insomnia),(Citation: Google Project Zero Insomnia)</t>
+    <t>,(Citation: Google Project Zero Insomnia),(Citation: Volexity Insomnia)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint-Judy)</t>
@@ -2317,7 +2317,7 @@
     <t>,(Citation: Tripwire-MazarBOT)</t>
   </si>
   <si>
-    <t>,(Citation: Xiao-KeyRaider),(Citation: Lookout-Monokle)</t>
+    <t>,(Citation: Lookout-Monokle),(Citation: Xiao-KeyRaider)</t>
   </si>
   <si>
     <t>,(Citation: Lookout-NotCompatible)</t>
@@ -2395,7 +2395,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: Krebs-Triada June 2019)</t>
+    <t>,(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>
@@ -2407,7 +2407,7 @@
     <t>,(Citation: ESET-Twitoor)</t>
   </si>
   <si>
-    <t>,(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019)</t>
+    <t>,(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018)</t>
   </si>
   <si>
     <t>,(Citation: Lookout ViperRAT)</t>
@@ -2431,7 +2431,7 @@
     <t>,(Citation: PaloAlto-Xbot)</t>
   </si>
   <si>
-    <t>,(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1)</t>
+    <t>,(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost)</t>
   </si>
   <si>
     <t>,(Citation: paloalto_yispecter_1015)</t>

--- a/versions/v16/docs/mobile-attack-v16.1/mobile-attack-v16.1-software.xlsx
+++ b/versions/v16/docs/mobile-attack-v16.1/mobile-attack-v16.1-software.xlsx
@@ -2137,13 +2137,13 @@
     <t>tool</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-Anserver2),(Citation: TrendMicro-Anserver)</t>
+    <t>,(Citation: TrendMicro-Anserver),(Citation: TrendMicro-Anserver2)</t>
   </si>
   <si>
     <t>,(Citation: lookout_abstractemu_1021)</t>
   </si>
   <si>
-    <t>,(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor)</t>
+    <t>,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint Agent Smith)</t>
@@ -2167,7 +2167,7 @@
     <t>,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,(Citation: Cofense Anubis),(Citation: Trend Micro Anubis),(Citation: Zimperium z9)</t>
+    <t>,(Citation: Zimperium z9),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis)</t>
   </si>
   <si>
     <t>,(Citation: Securelist Asacub)</t>
@@ -2176,13 +2176,13 @@
     <t>,(Citation: lookout_bouldspy_0423)</t>
   </si>
   <si>
-    <t>,(Citation: mcafee_brata_0421),(Citation: cleafy_brata_0122),(Citation: securelist_brata_0819)</t>
+    <t>,(Citation: securelist_brata_0819),(Citation: cleafy_brata_0122),(Citation: mcafee_brata_0421)</t>
   </si>
   <si>
     <t>,(Citation: Lookout-BrainTest)</t>
   </si>
   <si>
-    <t>,(Citation: Check Point-Joker),(Citation: Google Bread)</t>
+    <t>,(Citation: Google Bread),(Citation: Check Point-Joker)</t>
   </si>
   <si>
     <t>,(Citation: SecureList BusyGasper)</t>
@@ -2194,7 +2194,7 @@
     <t>,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus),(Citation: Forbes Cerberus)</t>
+    <t>,(Citation: Forbes Cerberus),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus)</t>
   </si>
   <si>
     <t>,(Citation: cyble_chameleon_0423)</t>
@@ -2254,16 +2254,16 @@
     <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Dark Caracal Jan 2018)</t>
   </si>
   <si>
-    <t>,(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy),(Citation: FortiGuard-FlexiSpy)</t>
+    <t>,(Citation: CyberMerchants-FlexiSpy),(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features)</t>
   </si>
   <si>
     <t>,(Citation: checkpoint_flixonline_0421)</t>
   </si>
   <si>
-    <t>,(Citation: bitdefender_flubot_0524),(Citation: proofpoint_flubot_0421)</t>
-  </si>
-  <si>
-    <t>,(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap)</t>
+    <t>,(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524)</t>
+  </si>
+  <si>
+    <t>,(Citation: Trend Micro FlyTrap),(Citation: Zimperium FlyTrap)</t>
   </si>
   <si>
     <t>,(Citation: Lookout FrozenCell)</t>
@@ -2302,13 +2302,13 @@
     <t>,(Citation: ArsTechnica-HummingWhale)</t>
   </si>
   <si>
-    <t>,(Citation: Google Project Zero Insomnia),(Citation: Volexity Insomnia)</t>
+    <t>,(Citation: Volexity Insomnia),(Citation: Google Project Zero Insomnia)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint-Judy)</t>
   </si>
   <si>
-    <t>,(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider)</t>
+    <t>,(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles)</t>
   </si>
   <si>
     <t>,(Citation: Bitdefender Mandrake)</t>
@@ -2317,7 +2317,7 @@
     <t>,(Citation: Tripwire-MazarBOT)</t>
   </si>
   <si>
-    <t>,(Citation: Lookout-Monokle),(Citation: Xiao-KeyRaider)</t>
+    <t>,(Citation: Xiao-KeyRaider),(Citation: Lookout-Monokle)</t>
   </si>
   <si>
     <t>,(Citation: Lookout-NotCompatible)</t>
@@ -2359,7 +2359,7 @@
     <t>,(Citation: FireEye-RuMMS)</t>
   </si>
   <si>
-    <t>,(Citation: cleafy_sova_1122),(Citation: threatfabric_sova_0921)</t>
+    <t>,(Citation: threatfabric_sova_0921),(Citation: cleafy_sova_1122)</t>
   </si>
   <si>
     <t>,(Citation: nccgroup_sharkbot_0322)</t>
@@ -2395,7 +2395,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016)</t>
+    <t>,(Citation: Krebs-Triada June 2019),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Kaspersky Triada June 2016)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>
@@ -2407,7 +2407,7 @@
     <t>,(Citation: ESET-Twitoor)</t>
   </si>
   <si>
-    <t>,(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018)</t>
+    <t>,(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019)</t>
   </si>
   <si>
     <t>,(Citation: Lookout ViperRAT)</t>
@@ -2422,7 +2422,7 @@
     <t>(Citation: CrowdStrike-Android),(Citation: CrowdStrike-Android)</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-XLoader),(Citation: TrendMicro-XLoader-FakeSpy)</t>
+    <t>,(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-XLoader)</t>
   </si>
   <si>
     <t>,(Citation: TrendMicro-XLoader-FakeSpy)</t>
@@ -2431,7 +2431,7 @@
     <t>,(Citation: PaloAlto-Xbot)</t>
   </si>
   <si>
-    <t>,(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost)</t>
+    <t>,(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1)</t>
   </si>
   <si>
     <t>,(Citation: paloalto_yispecter_1015)</t>

--- a/versions/v16/docs/mobile-attack-v16.1/mobile-attack-v16.1-software.xlsx
+++ b/versions/v16/docs/mobile-attack-v16.1/mobile-attack-v16.1-software.xlsx
@@ -2167,7 +2167,7 @@
     <t>,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,(Citation: Zimperium z9),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis)</t>
+    <t>,(Citation: Zimperium z9),(Citation: Cofense Anubis),(Citation: Trend Micro Anubis)</t>
   </si>
   <si>
     <t>,(Citation: Securelist Asacub)</t>
@@ -2176,13 +2176,13 @@
     <t>,(Citation: lookout_bouldspy_0423)</t>
   </si>
   <si>
-    <t>,(Citation: securelist_brata_0819),(Citation: cleafy_brata_0122),(Citation: mcafee_brata_0421)</t>
+    <t>,(Citation: cleafy_brata_0122),(Citation: mcafee_brata_0421),(Citation: securelist_brata_0819)</t>
   </si>
   <si>
     <t>,(Citation: Lookout-BrainTest)</t>
   </si>
   <si>
-    <t>,(Citation: Google Bread),(Citation: Check Point-Joker)</t>
+    <t>,(Citation: Check Point-Joker),(Citation: Google Bread)</t>
   </si>
   <si>
     <t>,(Citation: SecureList BusyGasper)</t>
@@ -2194,7 +2194,7 @@
     <t>,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,(Citation: Forbes Cerberus),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus)</t>
+    <t>,(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus),(Citation: Forbes Cerberus)</t>
   </si>
   <si>
     <t>,(Citation: cyble_chameleon_0423)</t>
@@ -2263,7 +2263,7 @@
     <t>,(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524)</t>
   </si>
   <si>
-    <t>,(Citation: Trend Micro FlyTrap),(Citation: Zimperium FlyTrap)</t>
+    <t>,(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap)</t>
   </si>
   <si>
     <t>,(Citation: Lookout FrozenCell)</t>
@@ -2308,7 +2308,7 @@
     <t>,(Citation: CheckPoint-Judy)</t>
   </si>
   <si>
-    <t>,(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles)</t>
+    <t>,(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider)</t>
   </si>
   <si>
     <t>,(Citation: Bitdefender Mandrake)</t>
@@ -2338,7 +2338,7 @@
     <t>,(Citation: CitizenLab Great iPwn),(Citation: Lookout-Pegasus)</t>
   </si>
   <si>
-    <t>(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper),(Citation: fb_arid_viper)</t>
+    <t>(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper)</t>
   </si>
   <si>
     <t>,(Citation: TrendMicro-RCSAndroid)</t>
@@ -2359,7 +2359,7 @@
     <t>,(Citation: FireEye-RuMMS)</t>
   </si>
   <si>
-    <t>,(Citation: threatfabric_sova_0921),(Citation: cleafy_sova_1122)</t>
+    <t>,(Citation: cleafy_sova_1122),(Citation: threatfabric_sova_0921)</t>
   </si>
   <si>
     <t>,(Citation: nccgroup_sharkbot_0322)</t>
@@ -2395,7 +2395,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Krebs-Triada June 2019),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Kaspersky Triada June 2016)</t>
+    <t>,(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>
@@ -2431,7 +2431,7 @@
     <t>,(Citation: PaloAlto-Xbot)</t>
   </si>
   <si>
-    <t>,(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1)</t>
+    <t>,(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost)</t>
   </si>
   <si>
     <t>,(Citation: paloalto_yispecter_1015)</t>

--- a/versions/v16/docs/mobile-attack-v16.1/mobile-attack-v16.1-software.xlsx
+++ b/versions/v16/docs/mobile-attack-v16.1/mobile-attack-v16.1-software.xlsx
@@ -2137,13 +2137,13 @@
     <t>tool</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-Anserver),(Citation: TrendMicro-Anserver2)</t>
+    <t>,(Citation: TrendMicro-Anserver2),(Citation: TrendMicro-Anserver)</t>
   </si>
   <si>
     <t>,(Citation: lookout_abstractemu_1021)</t>
   </si>
   <si>
-    <t>,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
+    <t>,(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint Agent Smith)</t>
@@ -2155,7 +2155,7 @@
     <t>,(Citation: HackerNews-Allwinner)</t>
   </si>
   <si>
-    <t>,(Citation: blackberry_mobile_malware_apt_esp),(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps)</t>
+    <t>,(Citation: forcepoint_bitter),(Citation: blackberry_mobile_malware_apt_esp),(Citation: Lookout-EnterpriseApps)</t>
   </si>
   <si>
     <t>,(Citation: WeLiveSecurity AdDisplayAshas)</t>
@@ -2167,7 +2167,7 @@
     <t>,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,(Citation: Zimperium z9),(Citation: Cofense Anubis),(Citation: Trend Micro Anubis)</t>
+    <t>,(Citation: Trend Micro Anubis),(Citation: Zimperium z9),(Citation: Cofense Anubis)</t>
   </si>
   <si>
     <t>,(Citation: Securelist Asacub)</t>
@@ -2176,7 +2176,7 @@
     <t>,(Citation: lookout_bouldspy_0423)</t>
   </si>
   <si>
-    <t>,(Citation: cleafy_brata_0122),(Citation: mcafee_brata_0421),(Citation: securelist_brata_0819)</t>
+    <t>,(Citation: securelist_brata_0819),(Citation: cleafy_brata_0122),(Citation: mcafee_brata_0421)</t>
   </si>
   <si>
     <t>,(Citation: Lookout-BrainTest)</t>
@@ -2194,7 +2194,7 @@
     <t>,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus),(Citation: Forbes Cerberus)</t>
+    <t>,(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus),(Citation: Forbes Cerberus)</t>
   </si>
   <si>
     <t>,(Citation: cyble_chameleon_0423)</t>
@@ -2224,7 +2224,7 @@
     <t>,(Citation: cyble_drinik_1022)</t>
   </si>
   <si>
-    <t>,(Citation: Zscaler-SuperMarioRun),(Citation: Proofpoint-Droidjack)</t>
+    <t>,(Citation: Proofpoint-Droidjack),(Citation: Zscaler-SuperMarioRun)</t>
   </si>
   <si>
     <t>,(Citation: PaloAlto-DualToy)</t>
@@ -2254,7 +2254,7 @@
     <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Dark Caracal Jan 2018)</t>
   </si>
   <si>
-    <t>,(Citation: CyberMerchants-FlexiSpy),(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features)</t>
+    <t>,(Citation: FortiGuard-FlexiSpy),(Citation: CyberMerchants-FlexiSpy),(Citation: FlexiSpy-Features)</t>
   </si>
   <si>
     <t>,(Citation: checkpoint_flixonline_0421)</t>
@@ -2263,7 +2263,7 @@
     <t>,(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524)</t>
   </si>
   <si>
-    <t>,(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap)</t>
+    <t>,(Citation: Trend Micro FlyTrap),(Citation: Zimperium FlyTrap)</t>
   </si>
   <si>
     <t>,(Citation: Lookout FrozenCell)</t>
@@ -2302,13 +2302,13 @@
     <t>,(Citation: ArsTechnica-HummingWhale)</t>
   </si>
   <si>
-    <t>,(Citation: Volexity Insomnia),(Citation: Google Project Zero Insomnia)</t>
+    <t>,(Citation: Google Project Zero Insomnia),(Citation: Volexity Insomnia)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint-Judy)</t>
   </si>
   <si>
-    <t>,(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider)</t>
+    <t>,(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles)</t>
   </si>
   <si>
     <t>,(Citation: Bitdefender Mandrake)</t>
@@ -2317,7 +2317,7 @@
     <t>,(Citation: Tripwire-MazarBOT)</t>
   </si>
   <si>
-    <t>,(Citation: Xiao-KeyRaider),(Citation: Lookout-Monokle)</t>
+    <t>,(Citation: Lookout-Monokle),(Citation: Xiao-KeyRaider)</t>
   </si>
   <si>
     <t>,(Citation: Lookout-NotCompatible)</t>
@@ -2338,7 +2338,7 @@
     <t>,(Citation: CitizenLab Great iPwn),(Citation: Lookout-Pegasus)</t>
   </si>
   <si>
-    <t>(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper)</t>
+    <t>(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper),(Citation: fb_arid_viper)</t>
   </si>
   <si>
     <t>,(Citation: TrendMicro-RCSAndroid)</t>
@@ -2359,7 +2359,7 @@
     <t>,(Citation: FireEye-RuMMS)</t>
   </si>
   <si>
-    <t>,(Citation: cleafy_sova_1122),(Citation: threatfabric_sova_0921)</t>
+    <t>,(Citation: threatfabric_sova_0921),(Citation: cleafy_sova_1122)</t>
   </si>
   <si>
     <t>,(Citation: nccgroup_sharkbot_0322)</t>
@@ -2395,7 +2395,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016)</t>
+    <t>,(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Krebs-Triada June 2019)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>
@@ -2422,7 +2422,7 @@
     <t>(Citation: CrowdStrike-Android),(Citation: CrowdStrike-Android)</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-XLoader)</t>
+    <t>,(Citation: TrendMicro-XLoader),(Citation: TrendMicro-XLoader-FakeSpy)</t>
   </si>
   <si>
     <t>,(Citation: TrendMicro-XLoader-FakeSpy)</t>

--- a/versions/v16/docs/mobile-attack-v16.1/mobile-attack-v16.1-software.xlsx
+++ b/versions/v16/docs/mobile-attack-v16.1/mobile-attack-v16.1-software.xlsx
@@ -2143,7 +2143,7 @@
     <t>,(Citation: lookout_abstractemu_1021)</t>
   </si>
   <si>
-    <t>,(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor)</t>
+    <t>,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint Agent Smith)</t>
@@ -2155,7 +2155,7 @@
     <t>,(Citation: HackerNews-Allwinner)</t>
   </si>
   <si>
-    <t>,(Citation: forcepoint_bitter),(Citation: blackberry_mobile_malware_apt_esp),(Citation: Lookout-EnterpriseApps)</t>
+    <t>,(Citation: blackberry_mobile_malware_apt_esp),(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps)</t>
   </si>
   <si>
     <t>,(Citation: WeLiveSecurity AdDisplayAshas)</t>
@@ -2176,7 +2176,7 @@
     <t>,(Citation: lookout_bouldspy_0423)</t>
   </si>
   <si>
-    <t>,(Citation: securelist_brata_0819),(Citation: cleafy_brata_0122),(Citation: mcafee_brata_0421)</t>
+    <t>,(Citation: cleafy_brata_0122),(Citation: mcafee_brata_0421),(Citation: securelist_brata_0819)</t>
   </si>
   <si>
     <t>,(Citation: Lookout-BrainTest)</t>
@@ -2194,7 +2194,7 @@
     <t>,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus),(Citation: Forbes Cerberus)</t>
+    <t>,(Citation: Threat Fabric Cerberus),(Citation: Forbes Cerberus),(Citation: CheckPoint Cerberus)</t>
   </si>
   <si>
     <t>,(Citation: cyble_chameleon_0423)</t>
@@ -2224,7 +2224,7 @@
     <t>,(Citation: cyble_drinik_1022)</t>
   </si>
   <si>
-    <t>,(Citation: Proofpoint-Droidjack),(Citation: Zscaler-SuperMarioRun)</t>
+    <t>,(Citation: Zscaler-SuperMarioRun),(Citation: Proofpoint-Droidjack)</t>
   </si>
   <si>
     <t>,(Citation: PaloAlto-DualToy)</t>
@@ -2254,16 +2254,16 @@
     <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Dark Caracal Jan 2018)</t>
   </si>
   <si>
-    <t>,(Citation: FortiGuard-FlexiSpy),(Citation: CyberMerchants-FlexiSpy),(Citation: FlexiSpy-Features)</t>
+    <t>,(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy),(Citation: FortiGuard-FlexiSpy)</t>
   </si>
   <si>
     <t>,(Citation: checkpoint_flixonline_0421)</t>
   </si>
   <si>
-    <t>,(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524)</t>
-  </si>
-  <si>
-    <t>,(Citation: Trend Micro FlyTrap),(Citation: Zimperium FlyTrap)</t>
+    <t>,(Citation: bitdefender_flubot_0524),(Citation: proofpoint_flubot_0421)</t>
+  </si>
+  <si>
+    <t>,(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap)</t>
   </si>
   <si>
     <t>,(Citation: Lookout FrozenCell)</t>
@@ -2284,7 +2284,7 @@
     <t>,(Citation: Gooligan Citation)</t>
   </si>
   <si>
-    <t>,(Citation: Group IB Gustuff Mar 2019),(Citation: Talos Gustuff Apr 2019)</t>
+    <t>,(Citation: Talos Gustuff Apr 2019),(Citation: Group IB Gustuff Mar 2019)</t>
   </si>
   <si>
     <t>,(Citation: Palo Alto HenBox)</t>
@@ -2302,7 +2302,7 @@
     <t>,(Citation: ArsTechnica-HummingWhale)</t>
   </si>
   <si>
-    <t>,(Citation: Google Project Zero Insomnia),(Citation: Volexity Insomnia)</t>
+    <t>,(Citation: Volexity Insomnia),(Citation: Google Project Zero Insomnia)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint-Judy)</t>
@@ -2317,7 +2317,7 @@
     <t>,(Citation: Tripwire-MazarBOT)</t>
   </si>
   <si>
-    <t>,(Citation: Lookout-Monokle),(Citation: Xiao-KeyRaider)</t>
+    <t>,(Citation: Xiao-KeyRaider),(Citation: Lookout-Monokle)</t>
   </si>
   <si>
     <t>,(Citation: Lookout-NotCompatible)</t>
@@ -2335,10 +2335,10 @@
     <t>,(Citation: Lookout-PegasusAndroid)</t>
   </si>
   <si>
-    <t>,(Citation: CitizenLab Great iPwn),(Citation: Lookout-Pegasus)</t>
-  </si>
-  <si>
-    <t>(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper),(Citation: fb_arid_viper)</t>
+    <t>,(Citation: Lookout-Pegasus),(Citation: CitizenLab Great iPwn)</t>
+  </si>
+  <si>
+    <t>(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper)</t>
   </si>
   <si>
     <t>,(Citation: TrendMicro-RCSAndroid)</t>
@@ -2359,7 +2359,7 @@
     <t>,(Citation: FireEye-RuMMS)</t>
   </si>
   <si>
-    <t>,(Citation: threatfabric_sova_0921),(Citation: cleafy_sova_1122)</t>
+    <t>,(Citation: cleafy_sova_1122),(Citation: threatfabric_sova_0921)</t>
   </si>
   <si>
     <t>,(Citation: nccgroup_sharkbot_0322)</t>
@@ -2395,7 +2395,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Krebs-Triada June 2019)</t>
+    <t>,(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>

--- a/versions/v16/docs/mobile-attack-v16.1/mobile-attack-v16.1-software.xlsx
+++ b/versions/v16/docs/mobile-attack-v16.1/mobile-attack-v16.1-software.xlsx
@@ -2137,13 +2137,13 @@
     <t>tool</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-Anserver2),(Citation: TrendMicro-Anserver)</t>
+    <t>,(Citation: TrendMicro-Anserver),(Citation: TrendMicro-Anserver2)</t>
   </si>
   <si>
     <t>,(Citation: lookout_abstractemu_1021)</t>
   </si>
   <si>
-    <t>,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
+    <t>,(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint Agent Smith)</t>
@@ -2155,7 +2155,7 @@
     <t>,(Citation: HackerNews-Allwinner)</t>
   </si>
   <si>
-    <t>,(Citation: blackberry_mobile_malware_apt_esp),(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps)</t>
+    <t>,(Citation: forcepoint_bitter),(Citation: blackberry_mobile_malware_apt_esp),(Citation: Lookout-EnterpriseApps)</t>
   </si>
   <si>
     <t>,(Citation: WeLiveSecurity AdDisplayAshas)</t>
@@ -2167,7 +2167,7 @@
     <t>,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,(Citation: Trend Micro Anubis),(Citation: Zimperium z9),(Citation: Cofense Anubis)</t>
+    <t>,(Citation: Zimperium z9),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis)</t>
   </si>
   <si>
     <t>,(Citation: Securelist Asacub)</t>
@@ -2176,13 +2176,13 @@
     <t>,(Citation: lookout_bouldspy_0423)</t>
   </si>
   <si>
-    <t>,(Citation: cleafy_brata_0122),(Citation: mcafee_brata_0421),(Citation: securelist_brata_0819)</t>
+    <t>,(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421),(Citation: cleafy_brata_0122)</t>
   </si>
   <si>
     <t>,(Citation: Lookout-BrainTest)</t>
   </si>
   <si>
-    <t>,(Citation: Check Point-Joker),(Citation: Google Bread)</t>
+    <t>,(Citation: Google Bread),(Citation: Check Point-Joker)</t>
   </si>
   <si>
     <t>,(Citation: SecureList BusyGasper)</t>
@@ -2194,7 +2194,7 @@
     <t>,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,(Citation: Threat Fabric Cerberus),(Citation: Forbes Cerberus),(Citation: CheckPoint Cerberus)</t>
+    <t>,(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus),(Citation: Forbes Cerberus)</t>
   </si>
   <si>
     <t>,(Citation: cyble_chameleon_0423)</t>
@@ -2224,7 +2224,7 @@
     <t>,(Citation: cyble_drinik_1022)</t>
   </si>
   <si>
-    <t>,(Citation: Zscaler-SuperMarioRun),(Citation: Proofpoint-Droidjack)</t>
+    <t>,(Citation: Proofpoint-Droidjack),(Citation: Zscaler-SuperMarioRun)</t>
   </si>
   <si>
     <t>,(Citation: PaloAlto-DualToy)</t>
@@ -2254,16 +2254,16 @@
     <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Dark Caracal Jan 2018)</t>
   </si>
   <si>
-    <t>,(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy),(Citation: FortiGuard-FlexiSpy)</t>
+    <t>,(Citation: FlexiSpy-Features),(Citation: FortiGuard-FlexiSpy),(Citation: CyberMerchants-FlexiSpy)</t>
   </si>
   <si>
     <t>,(Citation: checkpoint_flixonline_0421)</t>
   </si>
   <si>
-    <t>,(Citation: bitdefender_flubot_0524),(Citation: proofpoint_flubot_0421)</t>
-  </si>
-  <si>
-    <t>,(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap)</t>
+    <t>,(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524)</t>
+  </si>
+  <si>
+    <t>,(Citation: Trend Micro FlyTrap),(Citation: Zimperium FlyTrap)</t>
   </si>
   <si>
     <t>,(Citation: Lookout FrozenCell)</t>
@@ -2338,7 +2338,7 @@
     <t>,(Citation: Lookout-Pegasus),(Citation: CitizenLab Great iPwn)</t>
   </si>
   <si>
-    <t>(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper)</t>
+    <t>(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper),(Citation: fb_arid_viper)</t>
   </si>
   <si>
     <t>,(Citation: TrendMicro-RCSAndroid)</t>
@@ -2395,7 +2395,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019)</t>
+    <t>,(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: Krebs-Triada June 2019)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>
@@ -2407,7 +2407,7 @@
     <t>,(Citation: ESET-Twitoor)</t>
   </si>
   <si>
-    <t>,(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019)</t>
+    <t>,(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018)</t>
   </si>
   <si>
     <t>,(Citation: Lookout ViperRAT)</t>
@@ -2422,7 +2422,7 @@
     <t>(Citation: CrowdStrike-Android),(Citation: CrowdStrike-Android)</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-XLoader),(Citation: TrendMicro-XLoader-FakeSpy)</t>
+    <t>,(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-XLoader)</t>
   </si>
   <si>
     <t>,(Citation: TrendMicro-XLoader-FakeSpy)</t>
@@ -2431,7 +2431,7 @@
     <t>,(Citation: PaloAlto-Xbot)</t>
   </si>
   <si>
-    <t>,(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost)</t>
+    <t>,(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1)</t>
   </si>
   <si>
     <t>,(Citation: paloalto_yispecter_1015)</t>

--- a/versions/v16/docs/mobile-attack-v16.1/mobile-attack-v16.1-software.xlsx
+++ b/versions/v16/docs/mobile-attack-v16.1/mobile-attack-v16.1-software.xlsx
@@ -2137,7 +2137,7 @@
     <t>tool</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-Anserver),(Citation: TrendMicro-Anserver2)</t>
+    <t>,(Citation: TrendMicro-Anserver2),(Citation: TrendMicro-Anserver)</t>
   </si>
   <si>
     <t>,(Citation: lookout_abstractemu_1021)</t>
@@ -2167,7 +2167,7 @@
     <t>,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,(Citation: Zimperium z9),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis)</t>
+    <t>,(Citation: Cofense Anubis),(Citation: Trend Micro Anubis),(Citation: Zimperium z9)</t>
   </si>
   <si>
     <t>,(Citation: Securelist Asacub)</t>
@@ -2176,13 +2176,13 @@
     <t>,(Citation: lookout_bouldspy_0423)</t>
   </si>
   <si>
-    <t>,(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421),(Citation: cleafy_brata_0122)</t>
+    <t>,(Citation: cleafy_brata_0122),(Citation: mcafee_brata_0421),(Citation: securelist_brata_0819)</t>
   </si>
   <si>
     <t>,(Citation: Lookout-BrainTest)</t>
   </si>
   <si>
-    <t>,(Citation: Google Bread),(Citation: Check Point-Joker)</t>
+    <t>,(Citation: Check Point-Joker),(Citation: Google Bread)</t>
   </si>
   <si>
     <t>,(Citation: SecureList BusyGasper)</t>
@@ -2194,7 +2194,7 @@
     <t>,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus),(Citation: Forbes Cerberus)</t>
+    <t>,(Citation: Threat Fabric Cerberus),(Citation: Forbes Cerberus),(Citation: CheckPoint Cerberus)</t>
   </si>
   <si>
     <t>,(Citation: cyble_chameleon_0423)</t>
@@ -2254,13 +2254,13 @@
     <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Dark Caracal Jan 2018)</t>
   </si>
   <si>
-    <t>,(Citation: FlexiSpy-Features),(Citation: FortiGuard-FlexiSpy),(Citation: CyberMerchants-FlexiSpy)</t>
+    <t>,(Citation: CyberMerchants-FlexiSpy),(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features)</t>
   </si>
   <si>
     <t>,(Citation: checkpoint_flixonline_0421)</t>
   </si>
   <si>
-    <t>,(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524)</t>
+    <t>,(Citation: bitdefender_flubot_0524),(Citation: proofpoint_flubot_0421)</t>
   </si>
   <si>
     <t>,(Citation: Trend Micro FlyTrap),(Citation: Zimperium FlyTrap)</t>
@@ -2284,7 +2284,7 @@
     <t>,(Citation: Gooligan Citation)</t>
   </si>
   <si>
-    <t>,(Citation: Talos Gustuff Apr 2019),(Citation: Group IB Gustuff Mar 2019)</t>
+    <t>,(Citation: Group IB Gustuff Mar 2019),(Citation: Talos Gustuff Apr 2019)</t>
   </si>
   <si>
     <t>,(Citation: Palo Alto HenBox)</t>
@@ -2302,7 +2302,7 @@
     <t>,(Citation: ArsTechnica-HummingWhale)</t>
   </si>
   <si>
-    <t>,(Citation: Volexity Insomnia),(Citation: Google Project Zero Insomnia)</t>
+    <t>,(Citation: Google Project Zero Insomnia),(Citation: Volexity Insomnia)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint-Judy)</t>
@@ -2335,10 +2335,10 @@
     <t>,(Citation: Lookout-PegasusAndroid)</t>
   </si>
   <si>
-    <t>,(Citation: Lookout-Pegasus),(Citation: CitizenLab Great iPwn)</t>
-  </si>
-  <si>
-    <t>(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper),(Citation: fb_arid_viper)</t>
+    <t>,(Citation: CitizenLab Great iPwn),(Citation: Lookout-Pegasus)</t>
+  </si>
+  <si>
+    <t>(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper)</t>
   </si>
   <si>
     <t>,(Citation: TrendMicro-RCSAndroid)</t>
@@ -2359,7 +2359,7 @@
     <t>,(Citation: FireEye-RuMMS)</t>
   </si>
   <si>
-    <t>,(Citation: cleafy_sova_1122),(Citation: threatfabric_sova_0921)</t>
+    <t>,(Citation: threatfabric_sova_0921),(Citation: cleafy_sova_1122)</t>
   </si>
   <si>
     <t>,(Citation: nccgroup_sharkbot_0322)</t>
@@ -2395,7 +2395,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: Krebs-Triada June 2019)</t>
+    <t>,(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>
@@ -2422,7 +2422,7 @@
     <t>(Citation: CrowdStrike-Android),(Citation: CrowdStrike-Android)</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-XLoader)</t>
+    <t>,(Citation: TrendMicro-XLoader),(Citation: TrendMicro-XLoader-FakeSpy)</t>
   </si>
   <si>
     <t>,(Citation: TrendMicro-XLoader-FakeSpy)</t>
